--- a/data_processed/20250710/BTCUSDVOLSURFACE_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDVOLSURFACE_20250710.xlsx
@@ -9007,7 +9007,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13842,7 +13842,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20338,7 +20338,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51614,7 +51614,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51668,7 +51668,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51751,7 +51751,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51892,7 +51892,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250710/BTCUSDVOLSURFACE_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDVOLSURFACE_20250710.xlsx
@@ -9007,7 +9007,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -13842,7 +13842,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -20338,7 +20338,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -51614,7 +51614,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -51668,7 +51668,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -51751,7 +51751,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -51892,7 +51892,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
